--- a/Examples/Udf/Samples/FunctionTests.xlsx
+++ b/Examples/Udf/Samples/FunctionTests.xlsx
@@ -1,25 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ExcelMVC\Examples\Udf\Samples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939CD95-C029-4AB4-86DC-706200AF05DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7425" yWindow="3472" windowWidth="16552" windowHeight="9871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>uDouble</t>
+  </si>
+  <si>
+    <t>uFloat</t>
+  </si>
+  <si>
+    <t>uDateTime</t>
+  </si>
+  <si>
+    <t>uByte</t>
+  </si>
+  <si>
+    <t>uSByte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uBoolean </t>
+  </si>
+  <si>
+    <t>uInt16</t>
+  </si>
+  <si>
+    <t>uUInt16</t>
+  </si>
+  <si>
+    <t>uInt32</t>
+  </si>
+  <si>
+    <t>uUInt32</t>
+  </si>
+  <si>
+    <t>uString</t>
+  </si>
+  <si>
+    <t>uDoubleArray</t>
+  </si>
+  <si>
+    <t>uDoubleMatrix</t>
+  </si>
+  <si>
+    <t>uDateTimeArray</t>
+  </si>
+  <si>
+    <t>uDateTimeMatrix</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +420,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.9296875" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" cm="1">
+        <f t="array" ref="B1">_xll.uDouble(123.456)</f>
+        <v>123.456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2">_xll.uFloat(12.34)</f>
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">_xll.uDateTime(NOW())</f>
+        <v>45392.708007986112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" cm="1">
+        <f t="array" ref="B4">_xll.uByte(255)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">_xll.uSByte(-128)</f>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="b" cm="1">
+        <f t="array" ref="B6">_xll.uBoolean(TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" ref="B7">_xll.uInt16(1234)</f>
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" cm="1">
+        <f t="array" ref="B8">_xll.uUInt16(32767)</f>
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" cm="1">
+        <f t="array" ref="B9">_xll.uInt32(POWER(2, 31) - 1)</f>
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" cm="1">
+        <f t="array" ref="B10">_xll.uUInt32(POWER(2, 31) -1)</f>
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str" cm="1">
+        <f t="array" ref="B11">_xll.uString("this is a  string")</f>
+        <v>this is a  string</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" cm="1">
+        <f t="array" ref="B12:E12">_xll.uDoubleArray(B13:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" cm="1">
+        <f t="array" ref="B15:C16">_xll.uDateTimeMatrix(B13:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" cm="1">
+        <f t="array" ref="B17:E17">_xll.uDateTimeArray(B13:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" cm="1">
+        <f t="array" ref="B18:C19">_xll.uDateTimeMatrix(B13:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Examples/Udf/Samples/FunctionTests.xlsx
+++ b/Examples/Udf/Samples/FunctionTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ExcelMVC\Examples\Udf\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939CD95-C029-4AB4-86DC-706200AF05DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D997424-1071-47E5-AFE1-FD1B631A982E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="3472" windowWidth="16552" windowHeight="9871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="5648" windowWidth="16553" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>uDouble</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>uDateTimeMatrix</t>
+  </si>
+  <si>
+    <t>uAsync</t>
+  </si>
+  <si>
+    <t>uRtdTimer</t>
   </si>
 </sst>
 </file>
@@ -156,6 +162,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="excelmvc.7a9485be72c9497dbdc679a010f036de">
+      <tp t="s">
+        <v>2024-04-11T16:53:56.0357919+10:00Test</v>
+        <stp/>
+        <stp>Test</stp>
+        <tr r="B21" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -460,7 +481,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_xll.uDateTime(NOW())</f>
-        <v>45392.708007986112</v>
+        <v>45393.704120717593</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -627,6 +648,24 @@
       </c>
       <c r="C19" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" cm="1">
+        <f t="array" ref="B20">_xll.uAsync(3,4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="str" cm="1">
+        <f t="array" ref="B21">_xll.uTimer("Test")</f>
+        <v>Test</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Udf/Samples/FunctionTests.xlsx
+++ b/Examples/Udf/Samples/FunctionTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ExcelMVC\Examples\Udf\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D997424-1071-47E5-AFE1-FD1B631A982E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89D8E73-DEBC-46CB-BA54-617491A51140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="5648" windowWidth="16553" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="5663" windowWidth="18555" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>uAsync</t>
   </si>
   <si>
-    <t>uRtdTimer</t>
+    <t>uTimer(RTD)</t>
   </si>
 </sst>
 </file>
@@ -167,9 +167,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="excelmvc.7a9485be72c9497dbdc679a010f036de">
+    <main first="excelmvc.830f2665c702478682192b0fb74a7db6">
       <tp t="s">
-        <v>2024-04-11T16:53:56.0357919+10:00Test</v>
+        <v>time:2024-04-13T16:37:50.0544211+10:00 topic:Test</v>
         <stp/>
         <stp>Test</stp>
         <tr r="B21" s="1"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_xll.uDateTime(NOW())</f>
-        <v>45393.704120717593</v>
+        <v>45395.693105555554</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -665,7 +665,7 @@
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_xll.uTimer("Test")</f>
-        <v>Test</v>
+        <v>time:2024-04-13T16:37:50.0544211+10:00 topic:Test</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Udf/Samples/FunctionTests.xlsx
+++ b/Examples/Udf/Samples/FunctionTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ExcelMVC\Examples\Udf\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89D8E73-DEBC-46CB-BA54-617491A51140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D16C50-6AA9-4A6F-8EA7-CB6610DA1A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="5663" windowWidth="18555" windowHeight="6645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2483" yWindow="3915" windowWidth="18555" windowHeight="8993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>uDouble</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>uTimer(RTD)</t>
+  </si>
+  <si>
+    <t>uObjectArray</t>
+  </si>
+  <si>
+    <t>uObjectMatrix</t>
+  </si>
+  <si>
+    <t>uObject(Empty)</t>
   </si>
 </sst>
 </file>
@@ -167,9 +176,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="excelmvc.830f2665c702478682192b0fb74a7db6">
+    <main first="excelmvc.524598b742c24963b18c8bf0fd4b51e0">
       <tp t="s">
-        <v>time:2024-04-13T16:37:50.0544211+10:00 topic:Test</v>
+        <v>time:2024-04-13T17:50:53.4999072+10:00 topic:Test</v>
         <stp/>
         <stp>Test</stp>
         <tr r="B21" s="1"/>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -481,7 +490,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_xll.uDateTime(NOW())</f>
-        <v>45395.693105555554</v>
+        <v>45395.743679861109</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -665,7 +674,68 @@
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_xll.uTimer("Test")</f>
-        <v>time:2024-04-13T16:37:50.0544211+10:00 topic:Test</v>
+        <v>time:2024-04-13T17:50:53.4999072+10:00 topic:Test</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B24" t="e">
+        <f>3/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" cm="1">
+        <f t="array" ref="B25:E25">_xll.uObjectArray(B23:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" cm="1">
+        <f t="array" ref="B28:C29">_xll.uObjectMatrix(B23:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" cm="1">
+        <f t="array" ref="B31">_xll.uObject(B30)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Udf/Samples/FunctionTests.xlsx
+++ b/Examples/Udf/Samples/FunctionTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ExcelMVC\Examples\Udf\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D16C50-6AA9-4A6F-8EA7-CB6610DA1A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA1788D-24EB-4A81-9B2C-4772763D9F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2483" yWindow="3915" windowWidth="18555" windowHeight="8993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>uDouble</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>uObject(Empty)</t>
+  </si>
+  <si>
+    <t>uInt32Array</t>
+  </si>
+  <si>
+    <t>uInt32Matrix</t>
   </si>
 </sst>
 </file>
@@ -176,9 +182,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="excelmvc.524598b742c24963b18c8bf0fd4b51e0">
+    <main first="excelmvc.0c8dda118fe94b09b0ebeece0633f5a4">
       <tp t="s">
-        <v>time:2024-04-13T17:50:53.4999072+10:00 topic:Test</v>
+        <v>time:2024-04-21T09:26:01.6207099+10:00 topic:Test</v>
         <stp/>
         <stp>Test</stp>
         <tr r="B21" s="1"/>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -490,7 +496,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_xll.uDateTime(NOW())</f>
-        <v>45395.743679861109</v>
+        <v>45403.393077199071</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -674,7 +680,7 @@
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_xll.uTimer("Test")</f>
-        <v>time:2024-04-13T17:50:53.4999072+10:00 topic:Test</v>
+        <v>time:2024-04-21T09:26:01.6207099+10:00 topic:Test</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -738,6 +744,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" cm="1">
+        <f t="array" ref="B34:E34">_xll.uInt32Array(B35:C36)</f>
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" cm="1">
+        <f t="array" ref="B37:C38">_xll.uInt32Matrix(B35:C36)</f>
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Examples/Udf/Samples/FunctionTests.xlsx
+++ b/Examples/Udf/Samples/FunctionTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ExcelMVC\Examples\Udf\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA1788D-24EB-4A81-9B2C-4772763D9F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120AEDCE-8F60-46A1-AFE6-1825A81CF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="2400" windowWidth="13883" windowHeight="10027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>uDouble</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>uInt32Matrix</t>
+  </si>
+  <si>
+    <t>uStringArray</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -159,9 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,9 +194,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="excelmvc.0c8dda118fe94b09b0ebeece0633f5a4">
+    <main first="excelmvc.4c1013d96a124562b0da4c462ee0d61a">
       <tp t="s">
-        <v>time:2024-04-21T09:26:01.6207099+10:00 topic:Test</v>
+        <v>time:2024-04-21T09:43:47.4549880+10:00 topic:Test</v>
         <stp/>
         <stp>Test</stp>
         <tr r="B21" s="1"/>
@@ -457,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_xll.uDateTime(NOW())</f>
-        <v>45403.393077199071</v>
+        <v>45403.405421759257</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -680,7 +692,7 @@
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_xll.uTimer("Test")</f>
-        <v>time:2024-04-21T09:26:01.6207099+10:00 topic:Test</v>
+        <v>time:2024-04-21T09:43:47.4549880+10:00 topic:Test</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -798,6 +810,57 @@
         <v>4</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="str" cm="1">
+        <f t="array" ref="B40:E40">_xll.uStringArray(B41:C42)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <v>a</v>
+      </c>
+      <c r="D40" t="str">
+        <v>b</v>
+      </c>
+      <c r="E40" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B43" t="str" cm="1">
+        <f t="array" ref="B43:C44">_xll.uStringMatrix(B41:C42)</f>
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <v>a</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B44" t="str">
+        <v>b</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Examples/Udf/Samples/FunctionTests.xlsx
+++ b/Examples/Udf/Samples/FunctionTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ExcelMVC\Examples\Udf\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120AEDCE-8F60-46A1-AFE6-1825A81CF83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC32093A-946C-433F-A7CF-E8647D5E3420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2400" windowWidth="13883" windowHeight="10027" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3413" yWindow="727" windowWidth="17947" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="excelmvc.4c1013d96a124562b0da4c462ee0d61a">
+    <main first="excelmvc.610f9d9f7541465c903e03a29120448b">
       <tp t="s">
-        <v>time:2024-04-21T09:43:47.4549880+10:00 topic:Test</v>
+        <v>time:2024-04-21T10:25:48.4423678+10:00 topic:Test</v>
         <stp/>
         <stp>Test</stp>
         <tr r="B21" s="1"/>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_xll.uDateTime(NOW())</f>
-        <v>45403.405421759257</v>
+        <v>45403.434597222222</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -692,7 +692,7 @@
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_xll.uTimer("Test")</f>
-        <v>time:2024-04-21T09:43:47.4549880+10:00 topic:Test</v>
+        <v>time:2024-04-21T10:25:48.4423678+10:00 topic:Test</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -861,6 +861,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="str" cm="1">
+        <f t="array" ref="A46">_xll.uCaller()</f>
+        <v>[FunctionTests.xlsx]Sheet1!$A$46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
